--- a/0-进度安排甘特图.xlsx
+++ b/0-进度安排甘特图.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6053BC9A-A44B-40C3-BA39-9115063BFFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F2426-6B8A-48A0-A92E-BCA6C0A24681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="380" windowWidth="10160" windowHeight="8270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划表" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>项目规划器</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>SYF</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习openCV</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉SLAM</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1114,6 +1122,24 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="19" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,24 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="19" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -1637,8 +1645,8 @@
   </sheetPr>
   <dimension ref="B1:BL30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1683,44 +1691,44 @@
         <v>116</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="41"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="47"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="41"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
       <c r="AI2" s="17"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
     </row>
@@ -1733,156 +1741,156 @@
       <c r="G3" s="20"/>
       <c r="H3" s="22"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="35" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
     </row>
     <row r="4" spans="2:64" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
     </row>
     <row r="5" spans="2:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="24">
         <v>106</v>
       </c>
@@ -2826,7 +2834,9 @@
       <c r="BL15" s="11"/>
     </row>
     <row r="16" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -2897,7 +2907,9 @@
       <c r="BL16" s="11"/>
     </row>
     <row r="17" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -3379,10 +3391,10 @@
       <c r="BL23" s="11"/>
     </row>
     <row r="25" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="35"/>
     </row>
     <row r="26" spans="2:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="29" t="s">
@@ -3426,6 +3438,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J3:AI4"/>
+    <mergeCell ref="AJ3:BL4"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B4:B5"/>
@@ -3434,14 +3454,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J3:AI4"/>
-    <mergeCell ref="AJ3:BL4"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="AC2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="J6:BL23">
